--- a/2022北大杯赛程.xlsx
+++ b/2022北大杯赛程.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Desktop\2022北大杯\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiumao\Desktop\北大篮协小程序\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D65F637-FF74-4A0A-A0BC-BE09AA48BB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C775BDCE-E474-4442-AC1E-BA1F26E17C8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10780" yWindow="30" windowWidth="10820" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -263,102 +256,6 @@
     <t>I2vsI4</t>
   </si>
   <si>
-    <t>1vs2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3vs4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5vs6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7vs8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1vs4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5vs7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1vs3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2vs3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5vs8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6vs8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2vs4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6vs7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1vs6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3vs8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2vs7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4vs5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3vs7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2vs6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1vs5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4vs8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4vs6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3vs5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1vs7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2vs8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2vs5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,193 +275,314 @@
     <t>A1vsA3（女）</t>
   </si>
   <si>
-    <t>1vs2（女）</t>
-  </si>
-  <si>
     <t>B1vsB3（女）</t>
   </si>
   <si>
-    <t>3vs4（女）</t>
-  </si>
-  <si>
     <t>C2vsC5（女）</t>
   </si>
   <si>
+    <t>C1vsC3（女）</t>
+  </si>
+  <si>
+    <t>B2vsB5（女）</t>
+  </si>
+  <si>
+    <t>A3vsA5（女）</t>
+  </si>
+  <si>
+    <t>A1vsA4（女）</t>
+  </si>
+  <si>
+    <t>C1vsC4（女）</t>
+  </si>
+  <si>
+    <t>C3vsC5（女）</t>
+  </si>
+  <si>
+    <t>B1vsB4（女）</t>
+  </si>
+  <si>
+    <t>B3vsB5（女）</t>
+  </si>
+  <si>
+    <t>C4vsC5（女）</t>
+  </si>
+  <si>
+    <t>A4vsA5（女）</t>
+  </si>
+  <si>
+    <t>A2vsA3（女）</t>
+  </si>
+  <si>
+    <t>C2vsC3（女）</t>
+  </si>
+  <si>
+    <t>B4vsB5（女）</t>
+  </si>
+  <si>
+    <t>B2vsB3（女）</t>
+  </si>
+  <si>
+    <t>A1vsA2（女）</t>
+  </si>
+  <si>
+    <t>B3vsB4（女）</t>
+  </si>
+  <si>
+    <t>C1vsC2（女）</t>
+  </si>
+  <si>
+    <t>A3vsA4（女）</t>
+  </si>
+  <si>
+    <t>B1vsB2（女）</t>
+  </si>
+  <si>
+    <t>C3vsC4（女）</t>
+  </si>
+  <si>
+    <t>A2vsA4（女）</t>
+  </si>
+  <si>
+    <t>C2vsC4（女）</t>
+  </si>
+  <si>
+    <t>B1vsB5（女）</t>
+  </si>
+  <si>
+    <t>C1vsC5（女）</t>
+  </si>
+  <si>
+    <t>A1vsA5（女）</t>
+  </si>
+  <si>
+    <t>B2vsB4（女）</t>
+  </si>
+  <si>
+    <t>D2vsD6（女）</t>
+  </si>
+  <si>
+    <t>D4vsD8（女）</t>
+  </si>
+  <si>
+    <t>D1vsD5（女）</t>
+  </si>
+  <si>
+    <t>D3vsD7（女）</t>
+  </si>
+  <si>
+    <t>E1vsE3（女）</t>
+  </si>
+  <si>
+    <t>E2vsE4（女）</t>
+  </si>
+  <si>
+    <t>4vs7（女）</t>
+  </si>
+  <si>
+    <t>3vs6（女）</t>
+  </si>
+  <si>
+    <t>1vs8（女）</t>
+  </si>
+  <si>
+    <t>2vs5（女）</t>
+  </si>
+  <si>
+    <t>甲1vs甲2（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲4（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲5vs甲6（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲7vs甲8（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲4（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲6vs甲8（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲3（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲5vs甲7（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲4（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲5vs甲8（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲3（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲6vs甲7（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲6（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲7（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲4vs甲5（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲8（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲6（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲7（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲5（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲4vs甲8（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲4vs甲6（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲5（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲8（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲7（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲5vs甲6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲7vs甲8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲5vs甲8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲6vs甲7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲6vs甲8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲5vs甲7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲4vs甲5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲4vs甲8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲3vs甲5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲2vs甲8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲4vs甲6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲1vs甲7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A2vsA5（女）</t>
-  </si>
-  <si>
-    <t>C1vsC3（女）</t>
-  </si>
-  <si>
-    <t>B2vsB5（女）</t>
-  </si>
-  <si>
-    <t>A3vsA5（女）</t>
-  </si>
-  <si>
-    <t>A1vsA4（女）</t>
-  </si>
-  <si>
-    <t>5vs6（女）</t>
-  </si>
-  <si>
-    <t>C1vsC4（女）</t>
-  </si>
-  <si>
-    <t>C3vsC5（女）</t>
-  </si>
-  <si>
-    <t>7vs8（女）</t>
-  </si>
-  <si>
-    <t>B1vsB4（女）</t>
-  </si>
-  <si>
-    <t>B3vsB5（女）</t>
-  </si>
-  <si>
-    <t>C4vsC5（女）</t>
-  </si>
-  <si>
-    <t>A4vsA5（女）</t>
-  </si>
-  <si>
-    <t>A2vsA3（女）</t>
-  </si>
-  <si>
-    <t>1vs3（女）</t>
-  </si>
-  <si>
-    <t>2vs4（女）</t>
-  </si>
-  <si>
-    <t>C2vsC3（女）</t>
-  </si>
-  <si>
-    <t>5vs7（女）</t>
-  </si>
-  <si>
-    <t>B4vsB5（女）</t>
-  </si>
-  <si>
-    <t>B2vsB3（女）</t>
-  </si>
-  <si>
-    <t>6vs8（女）</t>
-  </si>
-  <si>
-    <t>A1vsA2（女）</t>
-  </si>
-  <si>
-    <t>B3vsB4（女）</t>
-  </si>
-  <si>
-    <t>C1vsC2（女）</t>
-  </si>
-  <si>
-    <t>A3vsA4（女）</t>
-  </si>
-  <si>
-    <t>5vs8（女）</t>
-  </si>
-  <si>
-    <t>1vs4（女）</t>
-  </si>
-  <si>
-    <t>B1vsB2（女）</t>
-  </si>
-  <si>
-    <t>2vs3（女）</t>
-  </si>
-  <si>
-    <t>6vs7（女）</t>
-  </si>
-  <si>
-    <t>C3vsC4（女）</t>
-  </si>
-  <si>
-    <t>A2vsA4（女）</t>
-  </si>
-  <si>
-    <t>C2vsC4（女）</t>
-  </si>
-  <si>
-    <t>1vs6（女）</t>
-  </si>
-  <si>
-    <t>2vs7（女）</t>
-  </si>
-  <si>
-    <t>B1vsB5（女）</t>
-  </si>
-  <si>
-    <t>C1vsC5（女）</t>
-  </si>
-  <si>
-    <t>3vs8（女）</t>
-  </si>
-  <si>
-    <t>A1vsA5（女）</t>
-  </si>
-  <si>
-    <t>4vs5（女）</t>
-  </si>
-  <si>
-    <t>B2vsB4（女）</t>
-  </si>
-  <si>
-    <t>3vs7（女）</t>
-  </si>
-  <si>
-    <t>D2vsD6（女）</t>
-  </si>
-  <si>
-    <t>2vs6（女）</t>
-  </si>
-  <si>
-    <t>D4vsD8（女）</t>
-  </si>
-  <si>
-    <t>D1vsD5（女）</t>
-  </si>
-  <si>
-    <t>1vs5（女）</t>
-  </si>
-  <si>
-    <t>D3vsD7（女）</t>
-  </si>
-  <si>
-    <t>4vs8（女）</t>
-  </si>
-  <si>
-    <t>4vs6（女）</t>
-  </si>
-  <si>
-    <t>E1vsE3（女）</t>
-  </si>
-  <si>
-    <t>3vs5（女）</t>
-  </si>
-  <si>
-    <t>2vs8（女）</t>
-  </si>
-  <si>
-    <t>E2vsE4（女）</t>
-  </si>
-  <si>
-    <t>1vs7（女）</t>
-  </si>
-  <si>
-    <t>4vs7（女）</t>
-  </si>
-  <si>
-    <t>3vs6（女）</t>
-  </si>
-  <si>
-    <t>1vs8（女）</t>
-  </si>
-  <si>
-    <t>2vs5（女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -999,9 +1017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S25" sqref="S25"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1051,10 +1069,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -1063,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -1072,7 +1090,7 @@
         <v>16</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
@@ -1090,19 +1108,19 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="15" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="1" t="s">
@@ -1123,7 +1141,7 @@
         <v>44634</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="Q4" t="s">
         <v>1</v>
@@ -1143,7 +1161,7 @@
         <v>44635</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="S5" t="s">
         <v>4</v>
@@ -1190,7 +1208,7 @@
         <v>44638</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="S8" s="10" t="s">
         <v>7</v>
@@ -1214,16 +1232,16 @@
         <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I9" t="s">
         <v>26</v>
@@ -1248,26 +1266,26 @@
         <v>44640</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>31</v>
@@ -1277,7 +1295,7 @@
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="17" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1313,7 +1331,7 @@
         <v>44645</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -1327,31 +1345,31 @@
         <v>35</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I16" t="s">
         <v>37</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N16" s="4" t="s">
         <v>39</v>
@@ -1365,7 +1383,7 @@
         <v>40</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>41</v>
@@ -1374,24 +1392,24 @@
         <v>109</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="1" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>43</v>
@@ -1426,35 +1444,93 @@
         <v>44652</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>44653</v>
       </c>
+      <c r="O23" s="14" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>44654</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="B24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24" s="4"/>
+      <c r="E24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>44655</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="5"/>
       <c r="R25" s="10"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>44656</v>
       </c>
+      <c r="O26" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="R26" s="10"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
@@ -1472,7 +1548,7 @@
         <v>44659</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -1480,57 +1556,60 @@
         <v>44660</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E30" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" t="s">
-        <v>45</v>
-      </c>
-      <c r="K30" t="s">
-        <v>65</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>46</v>
+      <c r="L30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" t="s">
+        <v>139</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>44661</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>47</v>
+      <c r="B31" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="D31" s="5"/>
-      <c r="E31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>119</v>
+      <c r="E31" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>48</v>
+      <c r="H31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="1" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="M31" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="O31" s="5"/>
     </row>
@@ -1539,7 +1618,7 @@
         <v>44662</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -1561,79 +1640,71 @@
       <c r="A36" s="3">
         <v>44666</v>
       </c>
-      <c r="O36" s="14" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>44667</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I37" t="s">
-        <v>49</v>
+      <c r="E37" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M37" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>44668</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>51</v>
+      <c r="E38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="H38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>130</v>
+      <c r="H38" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="1" t="s">
-        <v>74</v>
+        <v>145</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="M38" s="15" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O38" s="5"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>44669</v>
       </c>
-      <c r="O39" s="16" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
@@ -1661,28 +1732,22 @@
         <v>44674</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H44" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="M44" t="s">
-        <v>77</v>
-      </c>
-      <c r="N44" s="14" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1691,31 +1756,26 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="1" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="L45" s="16" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="M45" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="N45" s="5"/>
       <c r="O45" s="5"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -1796,51 +1856,42 @@
       <c r="A58" s="3">
         <v>44688</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F58" t="s">
-        <v>57</v>
-      </c>
-      <c r="H58" t="s">
-        <v>81</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="M58" t="s">
-        <v>82</v>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>44689</v>
       </c>
+      <c r="B59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="D59" s="5"/>
       <c r="E59" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="G59" s="5"/>
-      <c r="H59" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>58</v>
+      <c r="H59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="J59" s="5"/>
-      <c r="K59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="M59" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="N59" s="5"/>
+      <c r="L59" s="5"/>
       <c r="O59" s="5"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -1872,42 +1923,14 @@
       <c r="A65" s="3">
         <v>44695</v>
       </c>
-      <c r="B65" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="K65" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>44696</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="J66" s="5"/>
-      <c r="L66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
     </row>
@@ -1940,9 +1963,7 @@
       <c r="A72" s="3">
         <v>44702</v>
       </c>
-      <c r="K72" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="K72" s="12"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
